--- a/election_votar_data/SATKANIA/EOCHIA/152404/152404_com_1031_male_without_photo_59_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152404/152404_com_1031_male_without_photo_59_2025-11-24.xlsx
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯৩</t>
+          <t>১৫২৪০৪০০০৪৯৩</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯২</t>
+          <t>১৫২৪০৪০০০৪৯২</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="C675" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯৮</t>
+          <t>১৫২৪০৪০০০৪৯৮</t>
         </is>
       </c>
       <c r="D675" s="4" t="inlineStr">
@@ -28818,7 +28818,7 @@
       </c>
       <c r="C676" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯৭</t>
+          <t>১৫২৪০৪০০০৪৯৭</t>
         </is>
       </c>
       <c r="D676" s="4" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C677" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯৬</t>
+          <t>১৫২৪০৪০০০৪৯৬</t>
         </is>
       </c>
       <c r="D677" s="4" t="inlineStr">
@@ -28902,7 +28902,7 @@
       </c>
       <c r="C678" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯৫</t>
+          <t>১৫২৪০৪০০০৪৯৫</t>
         </is>
       </c>
       <c r="D678" s="4" t="inlineStr">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="C679" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৯১</t>
+          <t>১৫২৪০৪০০০৪৯১</t>
         </is>
       </c>
       <c r="D679" s="4" t="inlineStr">
@@ -28986,7 +28986,7 @@
       </c>
       <c r="C680" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৮৮</t>
+          <t>১৫২৪০৪০০০৪৮৮</t>
         </is>
       </c>
       <c r="D680" s="4" t="inlineStr">
@@ -29028,7 +29028,7 @@
       </c>
       <c r="C681" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৮৫</t>
+          <t>১৫২৪০৪০০০৪৮৫</t>
         </is>
       </c>
       <c r="D681" s="4" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="C682" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৮৪</t>
+          <t>১৫২৪০৪০০০৪৮৪</t>
         </is>
       </c>
       <c r="D682" s="4" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="C683" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৩০০০৪৮৩</t>
+          <t>১৫২৪০৪০০০৪৮৩</t>
         </is>
       </c>
       <c r="D683" s="4" t="inlineStr">

--- a/election_votar_data/SATKANIA/EOCHIA/152404/152404_com_1031_male_without_photo_59_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152404/152404_com_1031_male_without_photo_59_2025-11-24.xlsx
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯৩</t>
+          <t>১৫২৪০৩০০০৪৯৩</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯২</t>
+          <t>১৫২৪০৩০০০৪৯২</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="C675" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯৮</t>
+          <t>১৫২৪০৩০০০৪৯৮</t>
         </is>
       </c>
       <c r="D675" s="4" t="inlineStr">
@@ -28818,7 +28818,7 @@
       </c>
       <c r="C676" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯৭</t>
+          <t>১৫২৪০৩০০০৪৯৭</t>
         </is>
       </c>
       <c r="D676" s="4" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C677" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯৬</t>
+          <t>১৫২৪০৩০০০৪৯৬</t>
         </is>
       </c>
       <c r="D677" s="4" t="inlineStr">
@@ -28902,7 +28902,7 @@
       </c>
       <c r="C678" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯৫</t>
+          <t>১৫২৪০৩০০০৪৯৫</t>
         </is>
       </c>
       <c r="D678" s="4" t="inlineStr">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="C679" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৯১</t>
+          <t>১৫২৪০৩০০০৪৯১</t>
         </is>
       </c>
       <c r="D679" s="4" t="inlineStr">
@@ -28986,7 +28986,7 @@
       </c>
       <c r="C680" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৮৮</t>
+          <t>১৫২৪০৩০০০৪৮৮</t>
         </is>
       </c>
       <c r="D680" s="4" t="inlineStr">
@@ -29028,7 +29028,7 @@
       </c>
       <c r="C681" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৮৫</t>
+          <t>১৫২৪০৩০০০৪৮৫</t>
         </is>
       </c>
       <c r="D681" s="4" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="C682" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৮৪</t>
+          <t>১৫২৪০৩০০০৪৮৪</t>
         </is>
       </c>
       <c r="D682" s="4" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="C683" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৪০০০৪৮৩</t>
+          <t>১৫২৪০৩০০০৪৮৩</t>
         </is>
       </c>
       <c r="D683" s="4" t="inlineStr">
